--- a/Keele/keele.xlsx
+++ b/Keele/keele.xlsx
@@ -1,125 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="8910" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>Academic entry requirement有问题的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本身就没写</t>
   </si>
   <si>
     <t>http://www.keele.ac.uk/pgtcourses/specialistcommunitynursing-districtnursingpathway/#tabs-3</t>
   </si>
   <si>
-    <t>本身就没写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>http://www.keele.ac.uk/pgtcourses/specialistcommunitypublichealthnursing-healthvisitingpathway/#tabs-3</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/specialistcommunitypublichealthnursingschoolnursingpathway/#tabs-3</t>
+  </si>
+  <si>
+    <t>错误的记录，应删除</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/specialistcommunitypublichealthnursingschoolnursingpathway/</t>
+  </si>
+  <si>
+    <t>Structure有问题的</t>
+  </si>
+  <si>
+    <t>IELTS有问题的</t>
+  </si>
+  <si>
+    <t>未找到IELTS</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/businessadministrationmba/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/educationmba/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/europeanindustrialrelationsandhrm/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/healthexecutivemba/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/healthservicesmanagement/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/industrialrelations/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/industrialrelationsandemploymentlaw/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/industrialrelationsandhrm/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/leadershipandmanagement/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/professionalleadershipandmanagement/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/certificateincounselling/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/counsellingsupervision/</t>
+  </si>
+  <si>
+    <t>不是专业，可以删除</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/education/prospectivepostgraduates/internationalprogrammes/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/pgce-secondaryteaching/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/education/teachertraining/secondaryscitt/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/education/teachertraining/primaryscitt/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/teachingandlearninginhighereducation/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/lpdc/learningteaching/maandcpdprogrammes/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/medicalethicsandpalliativecare/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/advancingprofessionalpracticenursing/</t>
+  </si>
+  <si>
+    <t>Take the IELTS™ (7.5 or higher required) </t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/healthprofessionseducationaccreditationandassessment/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/medicalscienceleadershipandmanagement/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/rheumatologynursingentryalternateyears/</t>
+  </si>
+  <si>
+    <t>http://www.keele.ac.uk/pgtcourses/specialistcommunitynursing-districtnursingpathway/</t>
   </si>
   <si>
     <t>http://www.keele.ac.uk/pgtcourses/specialistcommunitypublichealthnursing-healthvisitingpathway/</t>
   </si>
   <si>
-    <t>http://www.keele.ac.uk/pgtcourses/specialistcommunitypublichealthnursingschoolnursingpathway/#tabs-3</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/specialistcommunitypublichealthnursing-healthvisitingpathway/#tabs-3</t>
-  </si>
-  <si>
-    <t>错误的记录，应删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误的记录，应删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/specialistcommunitypublichealthnursingschoolnursingpathway/</t>
-  </si>
-  <si>
-    <t>Structure有问题的</t>
-  </si>
-  <si>
-    <t>IELTS有问题的</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/businessadministrationmba/</t>
-  </si>
-  <si>
-    <t>未找到IELTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/educationmba/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/europeanindustrialrelationsandhrm/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/healthexecutivemba/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/healthservicesmanagement/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/industrialrelations/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/industrialrelationsandemploymentlaw/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/industrialrelationsandhrm/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/leadershipandmanagement/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/professionalleadershipandmanagement/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/counsellingsupervision/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/education/prospectivepostgraduates/internationalprogrammes/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/pgce-secondaryteaching/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/education/teachertraining/secondaryscitt/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/education/teachertraining/primaryscitt/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/medicalethicsandpalliativecare/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/advancingprofessionalpracticenursing/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/healthprofessionseducationaccreditationandassessment/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/medicalscienceleadershipandmanagement/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/rheumatologynursingentryalternateyears/</t>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/specialistcommunitynursing-districtnursingpathway/</t>
-  </si>
-  <si>
     <t>http://www.keele.ac.uk/pgtcourses/creativewriting/</t>
   </si>
   <si>
@@ -144,13 +151,12 @@
     <t>http://www.keele.ac.uk/pgtcourses/foundationmedicalpractice/</t>
   </si>
   <si>
+    <t>与159重复，可删除</t>
+  </si>
+  <si>
     <t>http://www.keele.ac.uk/pgtcourses/medicaleducation/</t>
   </si>
   <si>
-    <t>与159重复，可删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.keele.ac.uk/pgtcourses/medicalscience/</t>
   </si>
   <si>
@@ -169,91 +175,51 @@
     <t>http://www.keele.ac.uk/pgtcourses/medicalsciencesurgery/</t>
   </si>
   <si>
-    <t>未找到IELTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/certificateincounselling/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是专业，可以删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/educationmba/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多处有问题的</t>
   </si>
   <si>
-    <t>http://www.keele.ac.uk/pgtcourses/teachingandlearninginhighereducation/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/lpdc/learningteaching/maandcpdprogrammes/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Take the IELTS™ (7.5 or higher required) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/medicalethicsandpalliativecare/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.keele.ac.uk/pgtcourses/healthprofessionseducationaccreditationandassessment/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Take the IELTS™ (7.5 or higher required) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.keele.ac.uk/education/prospectivepostgraduates/maeducation/</t>
   </si>
   <si>
+    <t>找不到学院信息</t>
+  </si>
+  <si>
     <t>http://www.keele.ac.uk/criminology/prospectivepostgraduates/dcrim/</t>
-  </si>
-  <si>
-    <t>找不到学院信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="12"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -274,34 +240,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,74 +323,74 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Cans" typeface="Euphemia"/>
         <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
         <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,8 +523,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -580,807 +560,849 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>132</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>173</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>184</v>
       </c>
       <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>74</v>
       </c>
       <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>122</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>136</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>145</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>148</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>153</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>157</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>159</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>160</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>161</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>162</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>164</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>165</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>166</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>167</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>168</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>169</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>170</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>171</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>172</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>173</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" spans="1:1">
       <c r="A78" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>100</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C80" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>194</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>195</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>205</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>221</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>